--- a/BalanceSheet/TFX_bal.xlsx
+++ b/BalanceSheet/TFX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-10074000.0</v>
+        <v>512000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>32599000.0</v>
+        <v>513000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-3221000.0</v>
+        <v>526000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-22529000.0</v>
+        <v>515000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-12346000.0</v>
+        <v>489000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>476557000.0</v>
@@ -2026,16 +2026,16 @@
         <v>101000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4889000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22206000.0</v>
+        <v>97000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>5039000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-31488000.0</v>
+        <v>104000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>102916000.0</v>
@@ -3238,19 +3238,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>425000.0</v>
+        <v>474000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-35275000.0</v>
+        <v>477000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1545000.0</v>
+        <v>481000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>376000.0</v>
+        <v>483000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>679000.0</v>
+        <v>484000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>439558000.0</v>
@@ -4904,7 +4904,7 @@
         <v>2085000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1730000000.0</v>
+        <v>1607860000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1741524000.0</v>
@@ -5031,7 +5031,7 @@
         <v>2491000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2031000000.0</v>
+        <v>1908943000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1999068000.0</v>
